--- a/MTCG_Checklist_final.xlsx
+++ b/MTCG_Checklist_final.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{00C8C713-8F7F-4CDE-8F5E-C0683C55AF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC87A88C-9174-438A-AE0A-B46EADAECD15}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88369686-F968-45CB-887F-E38F2E727DD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -333,6 +333,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -634,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D58600B0-3567-4A3D-A785-925E0537D06D}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,6 +1044,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100495F7CC252815B47896F98900E10984C" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="afe1b3b164495dc81fdbcdcad6ec8b68">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="207955a2-a3fc-4582-b2ea-e4c7d1fb6048" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b6a42bf87c3f8727d31c248fc1697f6" ns2:_="">
     <xsd:import namespace="207955a2-a3fc-4582-b2ea-e4c7d1fb6048"/>
@@ -1171,15 +1184,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1187,6 +1191,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0824ED0-660A-437B-A039-7835C5DD208D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1200,14 +1212,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B871BF9-5772-4B74-B6DF-7878EF29873D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
